--- a/template-student.xlsx
+++ b/template-student.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel\DATN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A093E69-64A6-48D7-89F3-F21687BB6F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E60A178-E525-45F1-ADDF-87FE4F89097D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,12 +62,6 @@
     <t>Avatar</t>
   </si>
   <si>
-    <t>Thoại</t>
-  </si>
-  <si>
-    <t>Phạm</t>
-  </si>
-  <si>
     <t>2004-11-05</t>
   </si>
   <si>
@@ -87,6 +81,12 @@
   </si>
   <si>
     <t>phmamthooai@gmail.com</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>ad</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,36 +476,36 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>301200143</v>
+        <v>112233212</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>987004324</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -513,31 +513,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>301200144</v>
+        <v>221122123</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H3">
         <v>987004323</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J3">
         <v>1</v>
